--- a/xlsx/投票_intext.xlsx
+++ b/xlsx/投票_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>投票</t>
   </si>
@@ -29,13 +29,13 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_投票</t>
+    <t>政策_政策_维基百科_投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AF%86%E5%86%B3%E7%AD%96%E6%B3%95</t>
@@ -353,43 +353,40 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%8D%9A</t>
   </si>
   <si>
-    <t>賭博</t>
+    <t>赌博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民主國家</t>
+    <t>民主国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E8%A8%98%E5%90%8D%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>不記名投票</t>
+    <t>不记名投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>極權國家</t>
+    <t>极权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%84%E8%B3%82</t>
   </si>
   <si>
-    <t>賄賂</t>
+    <t>贿赂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E7%A5%A8</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%88%B6%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>強制投票</t>
+    <t>强制投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%A5%A8</t>
   </si>
   <si>
-    <t>鐵票</t>
+    <t>铁票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2515,7 +2512,7 @@
         <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -2541,10 +2538,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2570,10 +2567,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2599,10 +2596,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2628,10 +2625,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2657,10 +2654,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2686,10 +2683,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2715,10 +2712,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2744,10 +2741,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2773,10 +2770,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2802,10 +2799,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2831,10 +2828,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2889,10 +2886,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2918,10 +2915,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2947,10 +2944,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2976,10 +2973,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3005,10 +3002,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3034,10 +3031,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3063,10 +3060,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3092,10 +3089,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3121,10 +3118,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3150,10 +3147,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
